--- a/record.xlsx
+++ b/record.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eric</t>
+          <t>marcus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -458,26 +458,6 @@
         </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>computing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>marcus</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>coding</t>
         </is>
